--- a/grupos/6APM - Estadisticos 20242.xlsx
+++ b/grupos/6APM - Estadisticos 20242.xlsx
@@ -197,22 +197,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Ortega Medina Angel Gaspar</t>
+  </si>
+  <si>
     <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Herrera Serrano Mayra Iliana</t>
   </si>
   <si>
-    <t>Ortega Medina Angel Gaspar</t>
-  </si>
-  <si>
     <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
+    <t>Barrientos Ortiz Yuliana Isabel</t>
+  </si>
+  <si>
     <t>Martinez Cortes Wendy Karyme</t>
-  </si>
-  <si>
-    <t>Barrientos Ortiz Yuliana Isabel</t>
   </si>
   <si>
     <t>NC</t>
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -866,22 +866,22 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -905,19 +905,19 @@
         <v>5</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>5</v>
       </c>
       <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
         <v>5</v>
-      </c>
-      <c r="X5">
-        <v>7</v>
-      </c>
-      <c r="Y5">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -943,22 +943,22 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -979,22 +979,22 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>8</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1020,22 +1020,22 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W7">
         <v>10</v>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="Y7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1097,22 +1097,22 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="V8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>10</v>
@@ -1148,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1174,22 +1174,22 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1210,19 +1210,19 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>6</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1251,22 +1251,22 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W10">
         <v>10</v>
@@ -1302,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1328,22 +1328,22 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1367,19 +1367,19 @@
         <v>9</v>
       </c>
       <c r="U11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1405,22 +1405,22 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1441,13 +1441,13 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>10</v>
       </c>
       <c r="V12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W12">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1482,22 +1482,22 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1518,10 +1518,10 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1530,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -1559,22 +1559,22 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1595,22 +1595,22 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X14">
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1636,22 +1636,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1675,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1684,10 +1684,10 @@
         <v>8</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1713,22 +1713,22 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1749,7 +1749,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -1764,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1790,22 +1790,22 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1826,19 +1826,19 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U17">
         <v>8</v>
       </c>
       <c r="V17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W17">
         <v>10</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y17">
         <v>8</v>
@@ -1867,22 +1867,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1903,13 +1903,13 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>6</v>
       </c>
       <c r="V18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W18">
         <v>9</v>
@@ -1944,22 +1944,22 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1980,16 +1980,16 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U19">
         <v>6</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X19">
         <v>10</v>
@@ -2021,22 +2021,22 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2072,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2098,22 +2098,22 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2134,7 +2134,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U21">
         <v>10</v>
@@ -2143,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="W21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X21">
         <v>10</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2175,22 +2175,22 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2211,19 +2211,19 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>6</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W22">
         <v>8</v>
       </c>
       <c r="X22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y22">
         <v>8</v>
@@ -2252,22 +2252,22 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2288,13 +2288,13 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W23">
         <v>8</v>
@@ -2303,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2329,22 +2329,22 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2380,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="Y24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2406,22 +2406,22 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2448,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="V25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <v>10</v>
@@ -2483,22 +2483,22 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2519,7 +2519,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U26">
         <v>9</v>
@@ -2560,22 +2560,22 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2596,7 +2596,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U27">
         <v>9</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="Y27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2637,22 +2637,22 @@
         <v>7</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2679,13 +2679,13 @@
         <v>7</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W28">
         <v>8</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y28">
         <v>7</v>
@@ -2714,22 +2714,22 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2756,13 +2756,13 @@
         <v>6</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y29">
         <v>5</v>
@@ -2791,22 +2791,22 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2827,10 +2827,10 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V30">
         <v>7</v>
@@ -2839,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2868,22 +2868,22 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2910,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="V31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W31">
         <v>9</v>
@@ -2919,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="Y31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2945,22 +2945,22 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2981,7 +2981,7 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U32">
         <v>5</v>
@@ -2996,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="Y32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3022,22 +3022,22 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -3073,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="Y33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3099,22 +3099,22 @@
         <v>6</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -3138,19 +3138,19 @@
         <v>7</v>
       </c>
       <c r="U34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X34">
         <v>8</v>
       </c>
       <c r="Y34">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3176,22 +3176,22 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -3212,19 +3212,19 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U35">
         <v>7</v>
       </c>
       <c r="V35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y35">
         <v>8</v>
@@ -3253,22 +3253,22 @@
         <v>7</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -3289,22 +3289,22 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3330,22 +3330,22 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3378,10 +3378,10 @@
         <v>7</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y37">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3407,22 +3407,22 @@
         <v>8</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3443,16 +3443,16 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X38">
         <v>10</v>
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="L4">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -3627,7 +3627,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -3656,40 +3656,40 @@
         <v>96</v>
       </c>
       <c r="H5">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="I5">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="J5">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="K5">
-        <v>72</v>
+        <v>78.2</v>
       </c>
       <c r="L5">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="O5">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="P5">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="Q5">
-        <v>72</v>
+        <v>78.2</v>
       </c>
       <c r="R5">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S5">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3715,37 +3715,37 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I6">
+        <v>98.3</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
         <v>96.7</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>80</v>
-      </c>
-      <c r="L6">
-        <v>95.8</v>
-      </c>
-      <c r="M6">
-        <v>100</v>
-      </c>
-      <c r="N6">
-        <v>93.3</v>
-      </c>
       <c r="O6">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="P6">
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R6">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S6">
         <v>100</v>
@@ -3774,37 +3774,37 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I7">
+        <v>98.3</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
         <v>96.7</v>
       </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>92</v>
-      </c>
-      <c r="L7">
-        <v>95.8</v>
-      </c>
-      <c r="M7">
-        <v>100</v>
-      </c>
-      <c r="N7">
-        <v>93.3</v>
-      </c>
       <c r="O7">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="P7">
         <v>100</v>
       </c>
       <c r="Q7">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R7">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -3833,40 +3833,40 @@
         <v>92</v>
       </c>
       <c r="H8">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L8">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N8">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="O8">
         <v>100</v>
       </c>
       <c r="P8">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R8">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S8">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3901,13 +3901,13 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L9">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3919,13 +3919,13 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R9">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3957,10 +3957,10 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K10">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -3975,10 +3975,10 @@
         <v>100</v>
       </c>
       <c r="P10">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q10">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -4010,40 +4010,40 @@
         <v>96</v>
       </c>
       <c r="H11">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I11">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="J11">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N11">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="O11">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="P11">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q11">
         <v>100</v>
       </c>
       <c r="R11">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S11">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4078,10 +4078,10 @@
         <v>100</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L12">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M12">
         <v>100</v>
@@ -4096,10 +4096,10 @@
         <v>100</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R12">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -4128,40 +4128,40 @@
         <v>84</v>
       </c>
       <c r="H13">
+        <v>83.3</v>
+      </c>
+      <c r="I13">
+        <v>88.3</v>
+      </c>
+      <c r="J13">
+        <v>94.5</v>
+      </c>
+      <c r="K13">
+        <v>74.5</v>
+      </c>
+      <c r="L13">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="M13">
         <v>80</v>
       </c>
-      <c r="I13">
+      <c r="N13">
         <v>83.3</v>
       </c>
-      <c r="J13">
-        <v>88</v>
-      </c>
-      <c r="K13">
-        <v>76</v>
-      </c>
-      <c r="L13">
-        <v>91.7</v>
-      </c>
-      <c r="M13">
-        <v>84</v>
-      </c>
-      <c r="N13">
+      <c r="O13">
+        <v>88.3</v>
+      </c>
+      <c r="P13">
+        <v>94.5</v>
+      </c>
+      <c r="Q13">
+        <v>74.5</v>
+      </c>
+      <c r="R13">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="S13">
         <v>80</v>
-      </c>
-      <c r="O13">
-        <v>83.3</v>
-      </c>
-      <c r="P13">
-        <v>88</v>
-      </c>
-      <c r="Q13">
-        <v>76</v>
-      </c>
-      <c r="R13">
-        <v>91.7</v>
-      </c>
-      <c r="S13">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4190,37 +4190,37 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="J14">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K14">
         <v>100</v>
       </c>
       <c r="L14">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>100</v>
       </c>
       <c r="O14">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="P14">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q14">
         <v>100</v>
       </c>
       <c r="R14">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S14">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4246,37 +4246,37 @@
         <v>80</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="I15">
-        <v>83.3</v>
+        <v>91.7</v>
       </c>
       <c r="J15">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="K15">
-        <v>68</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="L15">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M15">
         <v>80</v>
       </c>
       <c r="N15">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="O15">
-        <v>83.3</v>
+        <v>91.7</v>
       </c>
       <c r="P15">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="Q15">
-        <v>68</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="R15">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S15">
         <v>80</v>
@@ -4311,17 +4311,17 @@
         <v>100</v>
       </c>
       <c r="J16">
+        <v>98.2</v>
+      </c>
+      <c r="K16">
+        <v>92.7</v>
+      </c>
+      <c r="L16">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="M16">
         <v>96</v>
       </c>
-      <c r="K16">
-        <v>84</v>
-      </c>
-      <c r="L16">
-        <v>91.7</v>
-      </c>
-      <c r="M16">
-        <v>92</v>
-      </c>
       <c r="N16">
         <v>100</v>
       </c>
@@ -4329,16 +4329,16 @@
         <v>100</v>
       </c>
       <c r="P16">
+        <v>98.2</v>
+      </c>
+      <c r="Q16">
+        <v>92.7</v>
+      </c>
+      <c r="R16">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="S16">
         <v>96</v>
-      </c>
-      <c r="Q16">
-        <v>84</v>
-      </c>
-      <c r="R16">
-        <v>91.7</v>
-      </c>
-      <c r="S16">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4370,17 +4370,17 @@
         <v>100</v>
       </c>
       <c r="J17">
+        <v>98.2</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>98</v>
+      </c>
+      <c r="M17">
         <v>96</v>
       </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>95.8</v>
-      </c>
-      <c r="M17">
-        <v>92</v>
-      </c>
       <c r="N17">
         <v>100</v>
       </c>
@@ -4388,16 +4388,16 @@
         <v>100</v>
       </c>
       <c r="P17">
+        <v>98.2</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>98</v>
+      </c>
+      <c r="S17">
         <v>96</v>
-      </c>
-      <c r="Q17">
-        <v>100</v>
-      </c>
-      <c r="R17">
-        <v>95.8</v>
-      </c>
-      <c r="S17">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4423,10 +4423,10 @@
         <v>92</v>
       </c>
       <c r="H18">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="I18">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -4435,16 +4435,16 @@
         <v>100</v>
       </c>
       <c r="L18">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N18">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="O18">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -4453,10 +4453,10 @@
         <v>100</v>
       </c>
       <c r="R18">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S18">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4488,13 +4488,13 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
       <c r="L19">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -4506,13 +4506,13 @@
         <v>100</v>
       </c>
       <c r="P19">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q19">
         <v>100</v>
       </c>
       <c r="R19">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S19">
         <v>100</v>
@@ -4553,7 +4553,7 @@
         <v>100</v>
       </c>
       <c r="L20">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M20">
         <v>100</v>
@@ -4571,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="R20">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S20">
         <v>100</v>
@@ -4600,10 +4600,10 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>86.7</v>
+        <v>93.3</v>
       </c>
       <c r="I21">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -4612,16 +4612,16 @@
         <v>100</v>
       </c>
       <c r="L21">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M21">
         <v>100</v>
       </c>
       <c r="N21">
-        <v>86.7</v>
+        <v>93.3</v>
       </c>
       <c r="O21">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="P21">
         <v>100</v>
@@ -4630,7 +4630,7 @@
         <v>100</v>
       </c>
       <c r="R21">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S21">
         <v>100</v>
@@ -4665,16 +4665,16 @@
         <v>100</v>
       </c>
       <c r="J22">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K22">
-        <v>76</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L22">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M22">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N22">
         <v>100</v>
@@ -4683,16 +4683,16 @@
         <v>100</v>
       </c>
       <c r="P22">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q22">
-        <v>76</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R22">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S22">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4718,37 +4718,37 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K23">
-        <v>92</v>
+        <v>92.7</v>
       </c>
       <c r="L23">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M23">
         <v>100</v>
       </c>
       <c r="N23">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="O23">
         <v>100</v>
       </c>
       <c r="P23">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q23">
-        <v>92</v>
+        <v>92.7</v>
       </c>
       <c r="R23">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S23">
         <v>100</v>
@@ -4789,7 +4789,7 @@
         <v>100</v>
       </c>
       <c r="L24">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -4807,7 +4807,7 @@
         <v>100</v>
       </c>
       <c r="R24">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S24">
         <v>100</v>
@@ -4848,7 +4848,7 @@
         <v>100</v>
       </c>
       <c r="L25">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M25">
         <v>100</v>
@@ -4866,7 +4866,7 @@
         <v>100</v>
       </c>
       <c r="R25">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S25">
         <v>100</v>
@@ -4907,7 +4907,7 @@
         <v>100</v>
       </c>
       <c r="L26">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -4925,7 +4925,7 @@
         <v>100</v>
       </c>
       <c r="R26">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S26">
         <v>100</v>
@@ -4954,10 +4954,10 @@
         <v>92</v>
       </c>
       <c r="H27">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I27">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -4966,16 +4966,16 @@
         <v>100</v>
       </c>
       <c r="L27">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M27">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N27">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="O27">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -4984,10 +4984,10 @@
         <v>100</v>
       </c>
       <c r="R27">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S27">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5019,17 +5019,17 @@
         <v>100</v>
       </c>
       <c r="J28">
+        <v>98.2</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>98</v>
+      </c>
+      <c r="M28">
         <v>96</v>
       </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>95.8</v>
-      </c>
-      <c r="M28">
-        <v>100</v>
-      </c>
       <c r="N28">
         <v>100</v>
       </c>
@@ -5037,16 +5037,16 @@
         <v>100</v>
       </c>
       <c r="P28">
+        <v>98.2</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>98</v>
+      </c>
+      <c r="S28">
         <v>96</v>
-      </c>
-      <c r="Q28">
-        <v>100</v>
-      </c>
-      <c r="R28">
-        <v>95.8</v>
-      </c>
-      <c r="S28">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5072,7 +5072,7 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>96.7</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -5084,13 +5084,13 @@
         <v>100</v>
       </c>
       <c r="L29">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>96.7</v>
       </c>
       <c r="O29">
         <v>100</v>
@@ -5102,7 +5102,7 @@
         <v>100</v>
       </c>
       <c r="R29">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S29">
         <v>100</v>
@@ -5131,40 +5131,40 @@
         <v>92</v>
       </c>
       <c r="H30">
-        <v>93.3</v>
+        <v>90</v>
       </c>
       <c r="I30">
+        <v>95</v>
+      </c>
+      <c r="J30">
+        <v>94.5</v>
+      </c>
+      <c r="K30">
+        <v>85.5</v>
+      </c>
+      <c r="L30">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="M30">
+        <v>96</v>
+      </c>
+      <c r="N30">
         <v>90</v>
       </c>
-      <c r="J30">
-        <v>88</v>
-      </c>
-      <c r="K30">
-        <v>80</v>
-      </c>
-      <c r="L30">
-        <v>91.7</v>
-      </c>
-      <c r="M30">
-        <v>92</v>
-      </c>
-      <c r="N30">
-        <v>93.3</v>
-      </c>
       <c r="O30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P30">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="Q30">
-        <v>80</v>
+        <v>85.5</v>
       </c>
       <c r="R30">
-        <v>91.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S30">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5190,40 +5190,40 @@
         <v>96</v>
       </c>
       <c r="H31">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L31">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N31">
-        <v>93.3</v>
+        <v>96.7</v>
       </c>
       <c r="O31">
         <v>100</v>
       </c>
       <c r="P31">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R31">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S31">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5249,40 +5249,40 @@
         <v>92</v>
       </c>
       <c r="H32">
-        <v>86.7</v>
+        <v>93.3</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
+        <v>98.2</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>98</v>
+      </c>
+      <c r="M32">
         <v>96</v>
       </c>
-      <c r="K32">
-        <v>100</v>
-      </c>
-      <c r="L32">
-        <v>95.8</v>
-      </c>
-      <c r="M32">
-        <v>92</v>
-      </c>
       <c r="N32">
-        <v>86.7</v>
+        <v>93.3</v>
       </c>
       <c r="O32">
         <v>100</v>
       </c>
       <c r="P32">
+        <v>98.2</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="R32">
+        <v>98</v>
+      </c>
+      <c r="S32">
         <v>96</v>
-      </c>
-      <c r="Q32">
-        <v>100</v>
-      </c>
-      <c r="R32">
-        <v>95.8</v>
-      </c>
-      <c r="S32">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5320,10 +5320,10 @@
         <v>100</v>
       </c>
       <c r="L33">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M33">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -5338,10 +5338,10 @@
         <v>100</v>
       </c>
       <c r="R33">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S33">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5376,10 +5376,10 @@
         <v>100</v>
       </c>
       <c r="K34">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L34">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M34">
         <v>100</v>
@@ -5394,10 +5394,10 @@
         <v>100</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R34">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S34">
         <v>100</v>
@@ -5429,16 +5429,16 @@
         <v>100</v>
       </c>
       <c r="I35">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="L35">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M35">
         <v>100</v>
@@ -5447,16 +5447,16 @@
         <v>100</v>
       </c>
       <c r="O35">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P35">
         <v>100</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="R35">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S35">
         <v>100</v>
@@ -5491,16 +5491,16 @@
         <v>100</v>
       </c>
       <c r="J36">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K36">
         <v>100</v>
       </c>
       <c r="L36">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M36">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -5509,16 +5509,16 @@
         <v>100</v>
       </c>
       <c r="P36">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q36">
         <v>100</v>
       </c>
       <c r="R36">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S36">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5544,37 +5544,37 @@
         <v>100</v>
       </c>
       <c r="H37">
-        <v>93.3</v>
+        <v>90</v>
       </c>
       <c r="I37">
-        <v>83.3</v>
+        <v>91.7</v>
       </c>
       <c r="J37">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="K37">
-        <v>88</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L37">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M37">
         <v>100</v>
       </c>
       <c r="N37">
-        <v>93.3</v>
+        <v>90</v>
       </c>
       <c r="O37">
-        <v>83.3</v>
+        <v>91.7</v>
       </c>
       <c r="P37">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="Q37">
-        <v>88</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="R37">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S37">
         <v>100</v>
@@ -5606,37 +5606,37 @@
         <v>93.3</v>
       </c>
       <c r="I38">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J38">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="K38">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L38">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M38">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N38">
         <v>93.3</v>
       </c>
       <c r="O38">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P38">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="Q38">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R38">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S38">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -5705,19 +5705,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>91.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>8.6</v>
+        <v>11.4</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -5749,7 +5749,7 @@
         <v>8.6</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -5781,7 +5781,7 @@
         <v>5.7</v>
       </c>
       <c r="H4">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>2.9</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -5833,19 +5833,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -6023,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -6034,22 +6034,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920150</v>
+        <v>22330051920426</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -6069,7 +6069,7 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -6092,7 +6092,7 @@
         <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -6118,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -6141,7 +6141,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6164,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -6187,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>5</v>
